--- a/data/fact_data/Aurangabad/Aurangabad_sec_Jan_19.xlsx
+++ b/data/fact_data/Aurangabad/Aurangabad_sec_Jan_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Aurangabad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537F6CD3-AC2E-5340-AC55-B23DFB944ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE9ED51-1A04-F643-B661-5F50AF42F97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abad_Anil_Jan_19" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Abad_Sahyog_Jan_19" sheetId="7" r:id="rId7"/>
     <sheet name="Abad_SD_Jan_19" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Abad_SD_Jan_19!$A$1:$I$73</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="91">
   <si>
     <t>Betadine Sol. 500ml              5%</t>
   </si>
@@ -308,10 +311,10 @@
     <t>Jan</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                 </t>
+    <t>Kishor</t>
   </si>
   <si>
-    <t>Kishor</t>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
@@ -325,7 +328,7 @@
     <numFmt numFmtId="166" formatCode="0.00_)"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -530,6 +533,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1179,7 +1188,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1279,6 +1288,79 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="37" fontId="32" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="284" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="284" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="37" fontId="35" fillId="0" borderId="0" xfId="168" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="292" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="290" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="284" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="284" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="168" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="284" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="292" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="284" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="284" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="293" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="32" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="168" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="289" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="291" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="168" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="168" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="325" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="325" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="168" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="326">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1944,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EC178-0F5A-3747-885D-3C6352FDD10D}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2725,7 +2807,7 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:E70" si="1">D28*B27</f>
+        <f t="shared" ref="E27:E71" si="1">D28*B27</f>
         <v>0</v>
       </c>
       <c r="F27" s="24" t="s">
@@ -3959,9 +4041,9 @@
       <c r="D71">
         <v>170</v>
       </c>
-      <c r="E71" t="e">
-        <f>#REF!*B71</f>
-        <v>#REF!</v>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F71" s="24" t="s">
         <v>60</v>
@@ -4032,7 +4114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5B7A37-C5F7-914C-8B33-9AE98D7AA2D3}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C70"/>
     </sheetView>
   </sheetViews>
@@ -8204,8 +8286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF69DF1-D5BD-C64B-8631-4B6A1C8B16E7}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -8256,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>83</v>
@@ -8282,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>83</v>
@@ -8308,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>83</v>
@@ -8334,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>83</v>
@@ -8360,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>83</v>
@@ -8386,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>83</v>
@@ -8412,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>83</v>
@@ -8440,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>83</v>
@@ -8453,7 +8535,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2"/>
@@ -8466,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>83</v>
@@ -8492,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>83</v>
@@ -8518,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>83</v>
@@ -8548,7 +8630,7 @@
         <v>1098</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>83</v>
@@ -8574,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>83</v>
@@ -8600,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>83</v>
@@ -8618,12 +8700,15 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
+      <c r="D16">
+        <v>100</v>
+      </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>83</v>
@@ -8653,7 +8738,7 @@
         <v>4060</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>83</v>
@@ -8683,7 +8768,7 @@
         <v>392</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>83</v>
@@ -8709,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>83</v>
@@ -8722,7 +8807,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="44" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="2"/>
@@ -8735,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>83</v>
@@ -8761,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>83</v>
@@ -8784,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>83</v>
@@ -8814,7 +8899,7 @@
         <v>638</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>83</v>
@@ -8840,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>83</v>
@@ -8868,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="24" t="s">
         <v>83</v>
@@ -8898,7 +8983,7 @@
         <v>480</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>83</v>
@@ -8911,17 +8996,20 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="43" t="s">
         <v>78</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
+      <c r="D27">
+        <v>760</v>
+      </c>
       <c r="E27">
         <f t="shared" ref="E27:E70" si="1">D28*B27</f>
         <v>0</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>83</v>
@@ -8947,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>83</v>
@@ -8973,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>83</v>
@@ -8999,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>83</v>
@@ -9025,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>83</v>
@@ -9051,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>83</v>
@@ -9077,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>83</v>
@@ -9103,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>83</v>
@@ -9129,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>83</v>
@@ -9152,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>83</v>
@@ -9178,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>83</v>
@@ -9204,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G38" s="24" t="s">
         <v>83</v>
@@ -9230,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>83</v>
@@ -9243,7 +9331,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="2"/>
@@ -9256,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>83</v>
@@ -9282,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>83</v>
@@ -9308,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>83</v>
@@ -9334,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>83</v>
@@ -9360,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G44" s="24" t="s">
         <v>83</v>
@@ -9386,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>83</v>
@@ -9409,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" s="24" t="s">
         <v>83</v>
@@ -9434,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G47" s="24" t="s">
         <v>83</v>
@@ -9460,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>83</v>
@@ -9486,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G49" s="24" t="s">
         <v>83</v>
@@ -9512,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G50" s="24" t="s">
         <v>83</v>
@@ -9535,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G51" s="24" t="s">
         <v>83</v>
@@ -9561,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>83</v>
@@ -9585,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>83</v>
@@ -9611,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54" s="24" t="s">
         <v>83</v>
@@ -9635,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G55" s="24" t="s">
         <v>83</v>
@@ -9661,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G56" s="24" t="s">
         <v>83</v>
@@ -9685,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G57" s="24" t="s">
         <v>83</v>
@@ -9711,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G58" s="24" t="s">
         <v>83</v>
@@ -9737,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G59" s="24" t="s">
         <v>83</v>
@@ -9763,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G60" s="24" t="s">
         <v>83</v>
@@ -9789,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G61" s="24" t="s">
         <v>83</v>
@@ -9815,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G62" s="24" t="s">
         <v>83</v>
@@ -9841,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G63" s="24" t="s">
         <v>83</v>
@@ -9867,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G64" s="24" t="s">
         <v>83</v>
@@ -9893,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G65" s="24" t="s">
         <v>83</v>
@@ -9919,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G66" s="24" t="s">
         <v>83</v>
@@ -9942,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G67" s="24" t="s">
         <v>83</v>
@@ -9968,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G68" s="24" t="s">
         <v>83</v>
@@ -9994,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G69" s="24" t="s">
         <v>83</v>
@@ -10007,7 +10095,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B70" s="2"/>
@@ -10020,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G70" s="24" t="s">
         <v>83</v>
@@ -10033,7 +10121,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="14">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="46" t="s">
         <v>52</v>
       </c>
       <c r="B71" s="2"/>
@@ -10046,7 +10134,7 @@
         <v>#REF!</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G71" s="24" t="s">
         <v>83</v>
@@ -10067,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G72" s="24" t="s">
         <v>83</v>
@@ -10090,7 +10178,7 @@
         <v>19065</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G73" s="24" t="s">
         <v>83</v>
@@ -10112,7 +10200,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C70"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -16429,25 +16517,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9EAFA3-E02B-4F4D-8A66-959CE6DDEAF3}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="67" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="10" max="10" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
+      <c r="B1" s="47" t="s">
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>67</v>
@@ -16470,21 +16558,20 @@
       <c r="I1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="2"/>
       <c r="D2">
         <v>135</v>
       </c>
-      <c r="E2">
-        <f>D2*B2</f>
-        <v>0</v>
+      <c r="E2" t="e">
+        <f>D2*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>65</v>
@@ -16498,20 +16585,19 @@
       <c r="I2">
         <v>2019</v>
       </c>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="2"/>
       <c r="D3">
         <v>237</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E26" si="0">D3*B3</f>
-        <v>0</v>
+      <c r="E3" t="e">
+        <f>D3*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>65</v>
@@ -16525,20 +16611,19 @@
       <c r="I3">
         <v>2019</v>
       </c>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="2"/>
       <c r="D4">
         <v>91</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E4" t="e">
+        <f>D4*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>65</v>
@@ -16552,20 +16637,19 @@
       <c r="I4">
         <v>2019</v>
       </c>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="2"/>
       <c r="D5">
         <v>344</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E5" t="e">
+        <f>D5*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>65</v>
@@ -16579,20 +16663,19 @@
       <c r="I5">
         <v>2019</v>
       </c>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="2"/>
       <c r="D6">
         <v>130</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E6" t="e">
+        <f>D6*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>65</v>
@@ -16606,20 +16689,19 @@
       <c r="I6">
         <v>2019</v>
       </c>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="2"/>
       <c r="D7">
         <v>244</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E7" t="e">
+        <f>D7*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>65</v>
@@ -16633,13 +16715,12 @@
       <c r="I7">
         <v>2019</v>
       </c>
-      <c r="J7" s="27"/>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="48">
         <v>5</v>
       </c>
       <c r="C8" s="2">
@@ -16648,9 +16729,9 @@
       <c r="D8">
         <v>88</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>440</v>
+      <c r="E8" t="e">
+        <f>D8*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>65</v>
@@ -16664,13 +16745,12 @@
       <c r="I8">
         <v>2019</v>
       </c>
-      <c r="J8" s="27"/>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="49">
         <v>18</v>
       </c>
       <c r="C9" s="2">
@@ -16679,9 +16759,9 @@
       <c r="D9">
         <v>57</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1026</v>
+      <c r="E9" t="e">
+        <f>D9*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>65</v>
@@ -16695,20 +16775,19 @@
       <c r="I9">
         <v>2019</v>
       </c>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="2"/>
       <c r="D10">
         <v>63</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E10" t="e">
+        <f>D10*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>65</v>
@@ -16722,21 +16801,20 @@
       <c r="I10">
         <v>2019</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="26"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="2"/>
       <c r="D11">
         <v>50</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E11" t="e">
+        <f>D11*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>65</v>
@@ -16750,21 +16828,20 @@
       <c r="I11">
         <v>2019</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="2"/>
       <c r="D12">
         <v>223</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E12" t="e">
+        <f>D12*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>65</v>
@@ -16778,13 +16855,12 @@
       <c r="I12">
         <v>2019</v>
       </c>
-      <c r="J12" s="27"/>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="51">
         <v>135</v>
       </c>
       <c r="C13" s="2">
@@ -16793,9 +16869,9 @@
       <c r="D13">
         <v>61</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>8235</v>
+      <c r="E13" t="e">
+        <f>D13*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>65</v>
@@ -16809,13 +16885,12 @@
       <c r="I13">
         <v>2019</v>
       </c>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="51">
         <v>49</v>
       </c>
       <c r="C14" s="2">
@@ -16824,9 +16899,9 @@
       <c r="D14">
         <v>104</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>5096</v>
+      <c r="E14" t="e">
+        <f>D14*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>65</v>
@@ -16840,13 +16915,12 @@
       <c r="I14">
         <v>2019</v>
       </c>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="1:11" ht="14">
+    </row>
+    <row r="15" spans="1:10" ht="14">
       <c r="A15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="52">
         <v>8</v>
       </c>
       <c r="C15" s="2">
@@ -16855,9 +16929,9 @@
       <c r="D15">
         <v>49</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>392</v>
+      <c r="E15" t="e">
+        <f>D15*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>65</v>
@@ -16871,17 +16945,16 @@
       <c r="I15">
         <v>2019</v>
       </c>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="2"/>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E16" t="e">
+        <f>D16*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>65</v>
@@ -16895,13 +16968,12 @@
       <c r="I16">
         <v>2019</v>
       </c>
-      <c r="J16" s="27"/>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="48">
         <v>166</v>
       </c>
       <c r="C17" s="2">
@@ -16910,9 +16982,9 @@
       <c r="D17">
         <v>70</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>11620</v>
+      <c r="E17" t="e">
+        <f>D17*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>65</v>
@@ -16926,13 +16998,12 @@
       <c r="I17">
         <v>2019</v>
       </c>
-      <c r="J17" s="27"/>
-    </row>
-    <row r="18" spans="1:10">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="48">
         <v>33</v>
       </c>
       <c r="C18" s="2">
@@ -16941,9 +17012,9 @@
       <c r="D18">
         <v>49</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>1617</v>
+      <c r="E18" t="e">
+        <f>D18*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>65</v>
@@ -16957,20 +17028,19 @@
       <c r="I18">
         <v>2019</v>
       </c>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="2"/>
       <c r="D19">
         <v>49</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E19" t="e">
+        <f>D19*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>65</v>
@@ -16984,20 +17054,19 @@
       <c r="I19">
         <v>2019</v>
       </c>
-      <c r="J19" s="27"/>
-    </row>
-    <row r="20" spans="1:10">
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="2"/>
       <c r="D20">
         <v>399</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E20" t="e">
+        <f>D20*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>65</v>
@@ -17011,22 +17080,21 @@
       <c r="I20">
         <v>2019</v>
       </c>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:10" ht="14">
+    </row>
+    <row r="21" spans="1:9" ht="14">
       <c r="A21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21">
         <v>619</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E21" t="e">
+        <f>D21*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>65</v>
@@ -17040,17 +17108,16 @@
       <c r="I21">
         <v>2019</v>
       </c>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10">
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="2"/>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E22" t="e">
+        <f>D22*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>65</v>
@@ -17064,13 +17131,12 @@
       <c r="I22">
         <v>2019</v>
       </c>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10">
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="49">
         <v>1</v>
       </c>
       <c r="C23" s="2">
@@ -17079,9 +17145,9 @@
       <c r="D23">
         <v>638</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>638</v>
+      <c r="E23" t="e">
+        <f>D23*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>65</v>
@@ -17095,22 +17161,23 @@
       <c r="I23">
         <v>2019</v>
       </c>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="1:10">
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="49">
+        <v>9</v>
+      </c>
       <c r="C24" s="2">
         <v>5</v>
       </c>
       <c r="D24">
         <v>68</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E24" t="e">
+        <f>D24*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>65</v>
@@ -17124,14 +17191,13 @@
       <c r="I24">
         <v>2019</v>
       </c>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="25" spans="1:10">
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="2">
-        <v>9</v>
+      <c r="B25" s="49">
+        <v>2</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -17139,9 +17205,9 @@
       <c r="D25">
         <v>240</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>2160</v>
+      <c r="E25" t="e">
+        <f>D25*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>65</v>
@@ -17155,24 +17221,21 @@
       <c r="I25">
         <v>2019</v>
       </c>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
+      <c r="B26" s="49"/>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26">
         <v>480</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>960</v>
+      <c r="E26" t="e">
+        <f>D26*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>65</v>
@@ -17186,17 +17249,16 @@
       <c r="I26">
         <v>2019</v>
       </c>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="2"/>
-      <c r="E27">
-        <f t="shared" ref="E27:E70" si="1">D28*B27</f>
-        <v>0</v>
+      <c r="E27" t="e">
+        <f>D28*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>65</v>
@@ -17210,20 +17272,19 @@
       <c r="I27">
         <v>2019</v>
       </c>
-      <c r="J27" s="28"/>
-    </row>
-    <row r="28" spans="1:10">
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="2"/>
       <c r="D28">
         <v>830</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E28" t="e">
+        <f>D29*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>65</v>
@@ -17237,20 +17298,19 @@
       <c r="I28">
         <v>2019</v>
       </c>
-      <c r="J28" s="28"/>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="2"/>
       <c r="D29">
         <v>430</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E29" t="e">
+        <f>D30*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>65</v>
@@ -17264,20 +17324,19 @@
       <c r="I29">
         <v>2019</v>
       </c>
-      <c r="J29" s="30"/>
-    </row>
-    <row r="30" spans="1:10">
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="2"/>
       <c r="D30">
         <v>360</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E30" t="e">
+        <f>D31*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>65</v>
@@ -17291,20 +17350,19 @@
       <c r="I30">
         <v>2019</v>
       </c>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" ht="14">
+    </row>
+    <row r="31" spans="1:9" ht="14">
       <c r="A31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="2"/>
       <c r="D31">
         <v>269</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E31" t="e">
+        <f>D32*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>65</v>
@@ -17318,22 +17376,21 @@
       <c r="I31">
         <v>2019</v>
       </c>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10">
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="2">
         <v>6</v>
       </c>
       <c r="D32">
         <v>633</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E32" t="e">
+        <f>D33*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>65</v>
@@ -17347,20 +17404,19 @@
       <c r="I32">
         <v>2019</v>
       </c>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="1:10" ht="14">
+    </row>
+    <row r="33" spans="1:9" ht="14">
       <c r="A33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="2"/>
       <c r="D33">
         <v>789</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E33" t="e">
+        <f>D34*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>65</v>
@@ -17374,20 +17430,19 @@
       <c r="I33">
         <v>2019</v>
       </c>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" ht="14">
+    </row>
+    <row r="34" spans="1:9" ht="14">
       <c r="A34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="2"/>
       <c r="D34">
         <v>865</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E34" t="e">
+        <f>D35*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>65</v>
@@ -17401,20 +17456,19 @@
       <c r="I34">
         <v>2019</v>
       </c>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10">
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="2"/>
       <c r="D35">
         <v>863</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E35" t="e">
+        <f>D36*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>65</v>
@@ -17428,19 +17482,18 @@
       <c r="I35">
         <v>2019</v>
       </c>
-      <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="1:10">
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="57">
         <v>2</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>2272</v>
+      <c r="E36" t="e">
+        <f>D37*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>65</v>
@@ -17454,22 +17507,21 @@
       <c r="I36">
         <v>2019</v>
       </c>
-      <c r="J36" s="28"/>
-    </row>
-    <row r="37" spans="1:10">
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37">
         <v>1136</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E37" t="e">
+        <f>D38*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>65</v>
@@ -17483,13 +17535,12 @@
       <c r="I37">
         <v>2019</v>
       </c>
-      <c r="J37" s="28"/>
-    </row>
-    <row r="38" spans="1:10">
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="49">
         <v>3</v>
       </c>
       <c r="C38" s="2">
@@ -17498,9 +17549,9 @@
       <c r="D38">
         <v>1367</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>2865</v>
+      <c r="E38" t="e">
+        <f>D39*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>65</v>
@@ -17514,13 +17565,12 @@
       <c r="I38">
         <v>2019</v>
       </c>
-      <c r="J38" s="28"/>
-    </row>
-    <row r="39" spans="1:10">
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="49">
         <v>4</v>
       </c>
       <c r="C39" s="2">
@@ -17529,9 +17579,9 @@
       <c r="D39">
         <v>955</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>672</v>
+      <c r="E39" t="e">
+        <f>D40*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>65</v>
@@ -17545,20 +17595,19 @@
       <c r="I39">
         <v>2019</v>
       </c>
-      <c r="J39" s="28"/>
-    </row>
-    <row r="40" spans="1:10">
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="2"/>
       <c r="D40">
         <v>168</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E40" t="e">
+        <f>D41*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>65</v>
@@ -17572,22 +17621,21 @@
       <c r="I40">
         <v>2019</v>
       </c>
-      <c r="J40" s="27"/>
-    </row>
-    <row r="41" spans="1:10">
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="2">
         <v>4</v>
       </c>
       <c r="D41">
         <v>1287</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E41" t="e">
+        <f>D42*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>65</v>
@@ -17601,20 +17649,19 @@
       <c r="I41">
         <v>2019</v>
       </c>
-      <c r="J41" s="27"/>
-    </row>
-    <row r="42" spans="1:10">
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="2"/>
       <c r="D42">
         <v>1358</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E42" t="e">
+        <f>D43*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>65</v>
@@ -17628,20 +17675,19 @@
       <c r="I42">
         <v>2019</v>
       </c>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="1:10" ht="14">
+    </row>
+    <row r="43" spans="1:9" ht="14">
       <c r="A43" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="2"/>
       <c r="D43">
         <v>1270</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E43" t="e">
+        <f>D44*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>65</v>
@@ -17655,20 +17701,19 @@
       <c r="I43">
         <v>2019</v>
       </c>
-      <c r="J43" s="14"/>
-    </row>
-    <row r="44" spans="1:10" ht="14">
+    </row>
+    <row r="44" spans="1:9" ht="14">
       <c r="A44" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="2"/>
       <c r="D44">
         <v>1184</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E44" t="e">
+        <f>D45*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F44" s="24" t="s">
         <v>65</v>
@@ -17682,20 +17727,19 @@
       <c r="I44">
         <v>2019</v>
       </c>
-      <c r="J44" s="15"/>
-    </row>
-    <row r="45" spans="1:10" ht="14">
+    </row>
+    <row r="45" spans="1:9" ht="14">
       <c r="A45" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="2"/>
       <c r="D45">
         <v>755</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E45" t="e">
+        <f>D46*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>65</v>
@@ -17709,17 +17753,16 @@
       <c r="I45">
         <v>2019</v>
       </c>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" spans="1:10">
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="2"/>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E46" t="e">
+        <f>D47*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>65</v>
@@ -17733,17 +17776,16 @@
       <c r="I46">
         <v>2019</v>
       </c>
-      <c r="J46" s="28"/>
-    </row>
-    <row r="47" spans="1:10">
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="2"/>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E47" t="e">
+        <f>D48*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>65</v>
@@ -17757,22 +17799,21 @@
       <c r="I47">
         <v>2019</v>
       </c>
-      <c r="J47" s="28"/>
-    </row>
-    <row r="48" spans="1:10">
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="2">
         <v>3</v>
       </c>
       <c r="D48">
         <v>984</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E48" t="e">
+        <f>D49*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>65</v>
@@ -17786,20 +17827,19 @@
       <c r="I48">
         <v>2019</v>
       </c>
-      <c r="J48" s="28"/>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="2"/>
       <c r="D49">
         <v>157</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E49" t="e">
+        <f>D50*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>65</v>
@@ -17813,20 +17853,19 @@
       <c r="I49">
         <v>2019</v>
       </c>
-      <c r="J49" s="28"/>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="2"/>
       <c r="D50">
         <v>223</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E50" t="e">
+        <f>D51*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F50" s="24" t="s">
         <v>65</v>
@@ -17840,19 +17879,18 @@
       <c r="I50">
         <v>2019</v>
       </c>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="2">
         <v>1</v>
       </c>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E51" t="e">
+        <f>D52*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>65</v>
@@ -17866,20 +17904,19 @@
       <c r="I51">
         <v>2019</v>
       </c>
-      <c r="J51" s="28"/>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="2"/>
       <c r="D52">
         <v>484</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E52" t="e">
+        <f>D53*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F52" s="24" t="s">
         <v>65</v>
@@ -17893,18 +17930,17 @@
       <c r="I52">
         <v>2019</v>
       </c>
-      <c r="J52" s="16"/>
-      <c r="K52" s="26"/>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="2"/>
-      <c r="E53">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E53" t="e">
+        <f>D54*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F53" s="24" t="s">
         <v>65</v>
@@ -17918,20 +17954,19 @@
       <c r="I53">
         <v>2019</v>
       </c>
-      <c r="J53" s="30"/>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="2"/>
       <c r="D54">
         <v>769</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E54" t="e">
+        <f>D55*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F54" s="24" t="s">
         <v>65</v>
@@ -17945,20 +17980,19 @@
       <c r="I54">
         <v>2019</v>
       </c>
-      <c r="J54" s="17"/>
-      <c r="K54" s="26"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="J54" s="26"/>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="61"/>
       <c r="C55" s="2">
         <v>1</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E55" t="e">
+        <f>D56*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F55" s="24" t="s">
         <v>65</v>
@@ -17972,20 +18006,19 @@
       <c r="I55">
         <v>2019</v>
       </c>
-      <c r="J55" s="30"/>
-    </row>
-    <row r="56" spans="1:11">
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="2"/>
       <c r="D56">
         <v>155</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E56" t="e">
+        <f>D57*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F56" s="24" t="s">
         <v>65</v>
@@ -17999,20 +18032,17 @@
       <c r="I56">
         <v>2019</v>
       </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="26"/>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="J56" s="26"/>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="B57" s="61"/>
       <c r="C57" s="2"/>
       <c r="E57" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <f>D58*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F57" s="24" t="s">
         <v>65</v>
@@ -18026,20 +18056,19 @@
       <c r="I57">
         <v>2019</v>
       </c>
-      <c r="J57" s="36"/>
-    </row>
-    <row r="58" spans="1:11" ht="14">
+    </row>
+    <row r="58" spans="1:10" ht="14">
       <c r="A58" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="62"/>
       <c r="C58" s="2"/>
       <c r="D58">
         <v>98</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E58" t="e">
+        <f>D59*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F58" s="24" t="s">
         <v>65</v>
@@ -18053,20 +18082,19 @@
       <c r="I58">
         <v>2019</v>
       </c>
-      <c r="J58" s="36"/>
-    </row>
-    <row r="59" spans="1:11" ht="14">
+    </row>
+    <row r="59" spans="1:10" ht="14">
       <c r="A59" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="62"/>
       <c r="C59" s="2"/>
       <c r="D59">
         <v>59</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E59" t="e">
+        <f>D60*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F59" s="24" t="s">
         <v>65</v>
@@ -18080,21 +18108,20 @@
       <c r="I59">
         <v>2019</v>
       </c>
-      <c r="J59" s="36"/>
-      <c r="K59" s="26"/>
-    </row>
-    <row r="60" spans="1:11" ht="14">
+      <c r="J59" s="26"/>
+    </row>
+    <row r="60" spans="1:10" ht="14">
       <c r="A60" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="62"/>
       <c r="C60" s="2"/>
       <c r="D60">
         <v>112</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E60" t="e">
+        <f>D61*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F60" s="24" t="s">
         <v>65</v>
@@ -18108,21 +18135,20 @@
       <c r="I60">
         <v>2019</v>
       </c>
-      <c r="J60" s="36"/>
-      <c r="K60" s="26"/>
-    </row>
-    <row r="61" spans="1:11" ht="14">
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" ht="14">
       <c r="A61" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="62"/>
       <c r="C61" s="2"/>
       <c r="D61">
         <v>225</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E61" t="e">
+        <f>D62*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F61" s="24" t="s">
         <v>65</v>
@@ -18136,21 +18162,20 @@
       <c r="I61">
         <v>2019</v>
       </c>
-      <c r="J61" s="36"/>
-      <c r="K61" s="26"/>
-    </row>
-    <row r="62" spans="1:11" ht="14">
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" ht="14">
       <c r="A62" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="62"/>
       <c r="C62" s="2"/>
       <c r="D62">
         <v>80</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E62" t="e">
+        <f>D63*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F62" s="24" t="s">
         <v>65</v>
@@ -18164,21 +18189,20 @@
       <c r="I62">
         <v>2019</v>
       </c>
-      <c r="J62" s="37"/>
-      <c r="K62" s="26"/>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="J62" s="26"/>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="63"/>
       <c r="C63" s="2"/>
       <c r="D63">
         <v>80</v>
       </c>
-      <c r="E63">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E63" t="e">
+        <f>D64*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F63" s="24" t="s">
         <v>65</v>
@@ -18192,21 +18216,20 @@
       <c r="I63">
         <v>2019</v>
       </c>
-      <c r="J63" s="36"/>
-      <c r="K63" s="26"/>
-    </row>
-    <row r="64" spans="1:11" ht="14">
+      <c r="J63" s="26"/>
+    </row>
+    <row r="64" spans="1:10" ht="14">
       <c r="A64" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="62"/>
       <c r="C64" s="2"/>
       <c r="D64">
         <v>80</v>
       </c>
-      <c r="E64">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E64" t="e">
+        <f>D65*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F64" s="24" t="s">
         <v>65</v>
@@ -18220,21 +18243,20 @@
       <c r="I64">
         <v>2019</v>
       </c>
-      <c r="J64" s="36"/>
-      <c r="K64" s="26"/>
-    </row>
-    <row r="65" spans="1:11" ht="28">
+      <c r="J64" s="26"/>
+    </row>
+    <row r="65" spans="1:10" ht="28">
       <c r="A65" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="62"/>
       <c r="C65" s="2"/>
       <c r="D65">
         <v>125</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E65" t="e">
+        <f>D66*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F65" s="24" t="s">
         <v>65</v>
@@ -18248,21 +18270,20 @@
       <c r="I65">
         <v>2019</v>
       </c>
-      <c r="J65" s="36"/>
-      <c r="K65" s="26"/>
-    </row>
-    <row r="66" spans="1:11" ht="28">
+      <c r="J65" s="26"/>
+    </row>
+    <row r="66" spans="1:10" ht="28">
       <c r="A66" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="62"/>
       <c r="C66" s="2"/>
       <c r="D66">
         <v>127</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E66" t="e">
+        <f>D67*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F66" s="24" t="s">
         <v>65</v>
@@ -18276,19 +18297,18 @@
       <c r="I66">
         <v>2019</v>
       </c>
-      <c r="J66" s="38"/>
-    </row>
-    <row r="67" spans="1:11" ht="14">
+    </row>
+    <row r="67" spans="1:10" ht="14">
       <c r="A67" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="2">
         <v>5</v>
       </c>
-      <c r="E67">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E67" t="e">
+        <f>D68*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F67" s="24" t="s">
         <v>65</v>
@@ -18302,21 +18322,20 @@
       <c r="I67">
         <v>2019</v>
       </c>
-      <c r="J67" s="33"/>
-      <c r="K67" s="26"/>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="J67" s="26"/>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="2"/>
       <c r="D68">
         <v>30</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E68" t="e">
+        <f>D69*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F68" s="24" t="s">
         <v>65</v>
@@ -18330,23 +18349,22 @@
       <c r="I68">
         <v>2019</v>
       </c>
-      <c r="J68" s="33"/>
-      <c r="K68" s="26"/>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="J68" s="26"/>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="2">
         <v>30</v>
       </c>
       <c r="D69">
         <v>345</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E69" t="e">
+        <f>D70*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F69" s="24" t="s">
         <v>65</v>
@@ -18360,22 +18378,21 @@
       <c r="I69">
         <v>2019</v>
       </c>
-      <c r="J69" s="34"/>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="2">
         <v>5</v>
       </c>
       <c r="D70">
         <v>48</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E70" t="e">
+        <f>D71*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F70" s="24" t="s">
         <v>65</v>
@@ -18389,22 +18406,21 @@
       <c r="I70">
         <v>2019</v>
       </c>
-      <c r="J70" s="10"/>
-    </row>
-    <row r="71" spans="1:11" ht="14">
+    </row>
+    <row r="71" spans="1:10" ht="14">
       <c r="A71" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="52">
         <v>1</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71">
         <v>170</v>
       </c>
-      <c r="E71">
-        <f>D71*B71</f>
-        <v>170</v>
+      <c r="E71" t="e">
+        <f>D71*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F71" s="24" t="s">
         <v>65</v>
@@ -18418,15 +18434,15 @@
       <c r="I71">
         <v>2019</v>
       </c>
-      <c r="J71" s="17"/>
-    </row>
-    <row r="72" spans="1:11">
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E72">
-        <f t="shared" ref="E72" si="2">D72*B72</f>
-        <v>0</v>
+      <c r="B72" s="61"/>
+      <c r="E72" t="e">
+        <f>D72*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F72" s="24" t="s">
         <v>65</v>
@@ -18440,15 +18456,12 @@
       <c r="I72">
         <v>2019</v>
       </c>
-      <c r="J72" s="23"/>
-    </row>
-    <row r="73" spans="1:11">
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B73">
-        <v>33172</v>
-      </c>
+      <c r="B73" s="66"/>
       <c r="C73">
         <v>44102</v>
       </c>
@@ -18466,6 +18479,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I73" xr:uid="{8A9EAFA3-E02B-4F4D-8A66-959CE6DDEAF3}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
